--- a/backend/leaderboard.xlsx
+++ b/backend/leaderboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/crankvod/golf-tournament-app/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06150360-AF86-5F41-B887-FB4FC168CB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFB1DAE-86BE-6849-9DDA-3C4AFCB0E458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round1" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1810,11 +1810,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9882,9 +9877,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59619C0-8A1E-2C47-B7F6-D22DEF41DE87}">
-  <dimension ref="A2:W84"/>
+  <dimension ref="A2:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="68" workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
@@ -11984,7 +11979,7 @@
         <v>-18</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="157" t="s">
         <v>122</v>
       </c>
@@ -11998,65 +11993,65 @@
       <c r="I72" s="158"/>
       <c r="J72" s="4"/>
     </row>
-    <row r="73" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="159"/>
-      <c r="B73" s="343"/>
-      <c r="D73" s="342" t="s">
+      <c r="B73" s="226"/>
+      <c r="D73" t="s">
         <v>67</v>
       </c>
-      <c r="E73" s="342" t="s">
+      <c r="E73" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="342" t="s">
+      <c r="F73" t="s">
         <v>96</v>
       </c>
-      <c r="G73" s="342" t="s">
+      <c r="G73" t="s">
         <v>98</v>
       </c>
-      <c r="H73" s="342" t="s">
+      <c r="H73" t="s">
         <v>70</v>
       </c>
-      <c r="I73" s="341" t="s">
+      <c r="I73" t="s">
         <v>71</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="74" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="159" t="str">
         <f>'OVERALL CALC'!Q83</f>
         <v>1ST</v>
       </c>
-      <c r="B74" s="342" t="str">
+      <c r="B74" t="str">
         <f>'OVERALL CALC'!R83</f>
         <v>⬆</v>
       </c>
-      <c r="C74" s="342" t="str">
+      <c r="C74" t="str">
         <f>'OVERALL CALC'!S83</f>
         <v>STONES</v>
       </c>
-      <c r="D74" s="342">
+      <c r="D74">
         <f>'OVERALL CALC'!T83</f>
         <v>24</v>
       </c>
-      <c r="E74" s="342">
+      <c r="E74">
         <f>'OVERALL CALC'!U83</f>
         <v>7.5</v>
       </c>
-      <c r="F74" s="342">
+      <c r="F74">
         <f>'OVERALL CALC'!V83</f>
         <v>24</v>
       </c>
-      <c r="G74" s="342">
+      <c r="G74">
         <f>'OVERALL CALC'!W83</f>
         <v>10.5</v>
       </c>
-      <c r="H74" s="342">
+      <c r="H74">
         <f>'OVERALL CALC'!X83</f>
         <v>6</v>
       </c>
-      <c r="I74" s="342">
+      <c r="I74">
         <f>'OVERALL CALC'!Y83</f>
         <v>24</v>
       </c>
@@ -12065,40 +12060,40 @@
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="159" t="str">
         <f>'OVERALL CALC'!Q84</f>
         <v>2ND</v>
       </c>
-      <c r="B75" s="342" t="str">
+      <c r="B75" t="str">
         <f>'OVERALL CALC'!R84</f>
         <v>⬇</v>
       </c>
-      <c r="C75" s="342" t="str">
+      <c r="C75" t="str">
         <f>'OVERALL CALC'!S84</f>
         <v>FINDLAY</v>
       </c>
-      <c r="D75" s="342">
+      <c r="D75">
         <f>'OVERALL CALC'!T84</f>
         <v>15</v>
       </c>
-      <c r="E75" s="342">
+      <c r="E75">
         <f>'OVERALL CALC'!U84</f>
         <v>22.5</v>
       </c>
-      <c r="F75" s="342">
+      <c r="F75">
         <f>'OVERALL CALC'!V84</f>
         <v>12</v>
       </c>
-      <c r="G75" s="342">
+      <c r="G75">
         <f>'OVERALL CALC'!W84</f>
         <v>10.5</v>
       </c>
-      <c r="H75" s="342">
+      <c r="H75">
         <f>'OVERALL CALC'!X84</f>
         <v>21</v>
       </c>
-      <c r="I75" s="342">
+      <c r="I75">
         <f>'OVERALL CALC'!Y84</f>
         <v>12</v>
       </c>
@@ -12107,40 +12102,40 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="159" t="str">
         <f>'OVERALL CALC'!Q85</f>
         <v>=3RD</v>
       </c>
-      <c r="B76" s="342" t="str">
+      <c r="B76" t="str">
         <f>'OVERALL CALC'!R85</f>
         <v>⬇</v>
       </c>
-      <c r="C76" s="342" t="str">
+      <c r="C76" t="str">
         <f>'OVERALL CALC'!S85</f>
         <v>HOLLANDS</v>
       </c>
-      <c r="D76" s="342">
+      <c r="D76">
         <f>'OVERALL CALC'!T85</f>
         <v>12</v>
       </c>
-      <c r="E76" s="342">
+      <c r="E76">
         <f>'OVERALL CALC'!U85</f>
         <v>22.5</v>
       </c>
-      <c r="F76" s="342">
+      <c r="F76">
         <f>'OVERALL CALC'!V85</f>
         <v>15</v>
       </c>
-      <c r="G76" s="342">
+      <c r="G76">
         <f>'OVERALL CALC'!W85</f>
         <v>10.5</v>
       </c>
-      <c r="H76" s="342">
+      <c r="H76">
         <f>'OVERALL CALC'!X85</f>
         <v>16.5</v>
       </c>
-      <c r="I76" s="342">
+      <c r="I76">
         <f>'OVERALL CALC'!Y85</f>
         <v>15</v>
       </c>
@@ -12149,40 +12144,40 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="159" t="str">
         <f>'OVERALL CALC'!Q86</f>
         <v>=3RD</v>
       </c>
-      <c r="B77" s="342" t="str">
+      <c r="B77" t="str">
         <f>'OVERALL CALC'!R86</f>
         <v>⬆</v>
       </c>
-      <c r="C77" s="342" t="str">
+      <c r="C77" t="str">
         <f>'OVERALL CALC'!S86</f>
         <v>REILLY</v>
       </c>
-      <c r="D77" s="342">
+      <c r="D77">
         <f>'OVERALL CALC'!T86</f>
         <v>18</v>
       </c>
-      <c r="E77" s="342">
+      <c r="E77">
         <f>'OVERALL CALC'!U86</f>
         <v>12</v>
       </c>
-      <c r="F77" s="342">
+      <c r="F77">
         <f>'OVERALL CALC'!V86</f>
         <v>21</v>
       </c>
-      <c r="G77" s="342">
+      <c r="G77">
         <f>'OVERALL CALC'!W86</f>
         <v>10.5</v>
       </c>
-      <c r="H77" s="342">
+      <c r="H77">
         <f>'OVERALL CALC'!X86</f>
         <v>9</v>
       </c>
-      <c r="I77" s="342">
+      <c r="I77">
         <f>'OVERALL CALC'!Y86</f>
         <v>21</v>
       </c>
@@ -12191,40 +12186,40 @@
         <v>91.5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="159" t="str">
         <f>'OVERALL CALC'!Q87</f>
         <v>5TH</v>
       </c>
-      <c r="B78" s="342" t="str">
+      <c r="B78" t="str">
         <f>'OVERALL CALC'!R87</f>
         <v>⬇</v>
       </c>
-      <c r="C78" s="342" t="str">
+      <c r="C78" t="str">
         <f>'OVERALL CALC'!S87</f>
         <v>LAING</v>
       </c>
-      <c r="D78" s="342">
+      <c r="D78">
         <f>'OVERALL CALC'!T87</f>
         <v>3</v>
       </c>
-      <c r="E78" s="342">
+      <c r="E78">
         <f>'OVERALL CALC'!U87</f>
         <v>15</v>
       </c>
-      <c r="F78" s="342">
+      <c r="F78">
         <f>'OVERALL CALC'!V87</f>
         <v>18</v>
       </c>
-      <c r="G78" s="342">
+      <c r="G78">
         <f>'OVERALL CALC'!W87</f>
         <v>10.5</v>
       </c>
-      <c r="H78" s="342">
+      <c r="H78">
         <f>'OVERALL CALC'!X87</f>
         <v>24</v>
       </c>
-      <c r="I78" s="342">
+      <c r="I78">
         <f>'OVERALL CALC'!Y87</f>
         <v>18</v>
       </c>
@@ -12233,40 +12228,40 @@
         <v>88.5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="159" t="str">
         <f>'OVERALL CALC'!Q88</f>
         <v>6TH</v>
       </c>
-      <c r="B79" s="342" t="str">
+      <c r="B79" t="str">
         <f>'OVERALL CALC'!R88</f>
         <v>⬆</v>
       </c>
-      <c r="C79" s="342" t="str">
+      <c r="C79" t="str">
         <f>'OVERALL CALC'!S88</f>
         <v>DONOVAN</v>
       </c>
-      <c r="D79" s="342">
+      <c r="D79">
         <f>'OVERALL CALC'!T88</f>
         <v>7.5</v>
       </c>
-      <c r="E79" s="342">
+      <c r="E79">
         <f>'OVERALL CALC'!U88</f>
         <v>18</v>
       </c>
-      <c r="F79" s="342">
+      <c r="F79">
         <f>'OVERALL CALC'!V88</f>
         <v>9</v>
       </c>
-      <c r="G79" s="342">
+      <c r="G79">
         <f>'OVERALL CALC'!W88</f>
         <v>10.5</v>
       </c>
-      <c r="H79" s="342">
+      <c r="H79">
         <f>'OVERALL CALC'!X88</f>
         <v>12</v>
       </c>
-      <c r="I79" s="342">
+      <c r="I79">
         <f>'OVERALL CALC'!Y88</f>
         <v>9</v>
       </c>
@@ -12275,40 +12270,40 @@
         <v>66</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="159" t="str">
         <f>'OVERALL CALC'!Q89</f>
         <v>7TH</v>
       </c>
-      <c r="B80" s="342" t="str">
+      <c r="B80" t="str">
         <f>'OVERALL CALC'!R89</f>
         <v>⬇</v>
       </c>
-      <c r="C80" s="342" t="str">
+      <c r="C80" t="str">
         <f>'OVERALL CALC'!S89</f>
         <v>DEY</v>
       </c>
-      <c r="D80" s="342">
+      <c r="D80">
         <f>'OVERALL CALC'!T89</f>
         <v>7.5</v>
       </c>
-      <c r="E80" s="342">
+      <c r="E80">
         <f>'OVERALL CALC'!U89</f>
         <v>7.5</v>
       </c>
-      <c r="F80" s="342">
+      <c r="F80">
         <f>'OVERALL CALC'!V89</f>
         <v>6</v>
       </c>
-      <c r="G80" s="342">
+      <c r="G80">
         <f>'OVERALL CALC'!W89</f>
         <v>21</v>
       </c>
-      <c r="H80" s="342">
+      <c r="H80">
         <f>'OVERALL CALC'!X89</f>
         <v>16.5</v>
       </c>
-      <c r="I80" s="342">
+      <c r="I80">
         <f>'OVERALL CALC'!Y89</f>
         <v>6</v>
       </c>
@@ -12317,7 +12312,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="160" t="str">
         <f>'OVERALL CALC'!Q90</f>
         <v>8TH</v>
@@ -12359,9 +12354,6 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:10" s="342" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -15533,7 +15525,7 @@
       </c>
       <c r="M2" s="197">
         <f>'RND 3 MSTB'!AF14</f>
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="N2" s="198">
         <f>'RND 3 MSTB'!AG14</f>
@@ -15640,7 +15632,7 @@
       </c>
       <c r="M3" s="199">
         <f>'RND 3 MSTB'!AF15</f>
-        <v>38</v>
+        <v>-7</v>
       </c>
       <c r="N3" s="201">
         <f>'RND 3 MSTB'!AG15</f>
@@ -15747,7 +15739,7 @@
       </c>
       <c r="M4" s="199">
         <f>'RND 3 MSTB'!AF16</f>
-        <v>35</v>
+        <v>-8</v>
       </c>
       <c r="N4" s="201">
         <f>'RND 3 MSTB'!AG16</f>
@@ -15854,7 +15846,7 @@
       </c>
       <c r="M5" s="199">
         <f>'RND 3 MSTB'!AF17</f>
-        <v>34</v>
+        <v>-9</v>
       </c>
       <c r="N5" s="201">
         <f>'RND 3 MSTB'!AG17</f>
@@ -15961,7 +15953,7 @@
       </c>
       <c r="M6" s="199">
         <f>'RND 3 MSTB'!AF18</f>
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="N6" s="201">
         <f>'RND 3 MSTB'!AG18</f>
@@ -16068,7 +16060,7 @@
       </c>
       <c r="M7" s="199">
         <f>'RND 3 MSTB'!AF19</f>
-        <v>29</v>
+        <v>-15</v>
       </c>
       <c r="N7" s="201">
         <f>'RND 3 MSTB'!AG19</f>
@@ -16175,7 +16167,7 @@
       </c>
       <c r="M8" s="199">
         <f>'RND 3 MSTB'!AF20</f>
-        <v>27</v>
+        <v>-16</v>
       </c>
       <c r="N8" s="201">
         <f>'RND 3 MSTB'!AG20</f>
@@ -16282,7 +16274,7 @@
       </c>
       <c r="M9" s="203">
         <f>'RND 3 MSTB'!AF21</f>
-        <v>25</v>
+        <v>-17</v>
       </c>
       <c r="N9" s="204">
         <f>'RND 3 MSTB'!AG21</f>
@@ -23271,7 +23263,7 @@
       </c>
       <c r="AL5" s="264">
         <f>'RND 3 MSTB'!C7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM5" s="264">
         <f>'RND 3 MSTB'!D7</f>
@@ -23279,39 +23271,39 @@
       </c>
       <c r="AN5" s="264">
         <f>'RND 3 MSTB'!E7</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO5" s="264">
         <f>'RND 3 MSTB'!F7</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP5" s="264">
         <f>'RND 3 MSTB'!G7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ5" s="264">
         <f>'RND 3 MSTB'!H7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR5" s="264">
         <f>'RND 3 MSTB'!I7</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS5" s="264">
         <f>'RND 3 MSTB'!J7</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT5" s="264">
         <f>'RND 3 MSTB'!K7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU5" s="264">
         <f>'RND 3 MSTB'!L7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV5" s="264">
         <f>'RND 3 MSTB'!M7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW5" s="264">
         <f>'RND 3 MSTB'!N7</f>
@@ -23319,11 +23311,11 @@
       </c>
       <c r="AX5" s="264">
         <f>'RND 3 MSTB'!O7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY5" s="264">
         <f>'RND 3 MSTB'!P7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="264">
         <f>'RND 3 MSTB'!Q7</f>
@@ -23331,15 +23323,15 @@
       </c>
       <c r="BA5" s="264">
         <f>'RND 3 MSTB'!R7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB5" s="264">
         <f>'RND 3 MSTB'!S7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC5" s="264">
         <f>'RND 3 MSTB'!T7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD5" s="265">
         <f>'RND 4 STBL'!C7</f>
@@ -23709,7 +23701,7 @@
       </c>
       <c r="AL6" s="264">
         <f>'RND 3 MSTB'!C8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" s="264">
         <f>'RND 3 MSTB'!D8</f>
@@ -23717,39 +23709,39 @@
       </c>
       <c r="AN6" s="264">
         <f>'RND 3 MSTB'!E8</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO6" s="264">
         <f>'RND 3 MSTB'!F8</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP6" s="264">
         <f>'RND 3 MSTB'!G8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ6" s="264">
         <f>'RND 3 MSTB'!H8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR6" s="264">
         <f>'RND 3 MSTB'!I8</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS6" s="264">
         <f>'RND 3 MSTB'!J8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT6" s="264">
         <f>'RND 3 MSTB'!K8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU6" s="264">
         <f>'RND 3 MSTB'!L8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV6" s="264">
         <f>'RND 3 MSTB'!M8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW6" s="264">
         <f>'RND 3 MSTB'!N8</f>
@@ -23757,11 +23749,11 @@
       </c>
       <c r="AX6" s="264">
         <f>'RND 3 MSTB'!O8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY6" s="264">
         <f>'RND 3 MSTB'!P8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ6" s="264">
         <f>'RND 3 MSTB'!Q8</f>
@@ -23769,15 +23761,15 @@
       </c>
       <c r="BA6" s="264">
         <f>'RND 3 MSTB'!R8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB6" s="264">
         <f>'RND 3 MSTB'!S8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC6" s="264">
         <f>'RND 3 MSTB'!T8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD6" s="265">
         <f>'RND 4 STBL'!C8</f>
@@ -24147,7 +24139,7 @@
       </c>
       <c r="AL7" s="264">
         <f>'RND 3 MSTB'!C9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM7" s="264">
         <f>'RND 3 MSTB'!D9</f>
@@ -24155,39 +24147,39 @@
       </c>
       <c r="AN7" s="264">
         <f>'RND 3 MSTB'!E9</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO7" s="264">
         <f>'RND 3 MSTB'!F9</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP7" s="264">
         <f>'RND 3 MSTB'!G9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ7" s="264">
         <f>'RND 3 MSTB'!H9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR7" s="264">
         <f>'RND 3 MSTB'!I9</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS7" s="264">
         <f>'RND 3 MSTB'!J9</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT7" s="264">
         <f>'RND 3 MSTB'!K9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU7" s="264">
         <f>'RND 3 MSTB'!L9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV7" s="264">
         <f>'RND 3 MSTB'!M9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW7" s="264">
         <f>'RND 3 MSTB'!N9</f>
@@ -24195,11 +24187,11 @@
       </c>
       <c r="AX7" s="264">
         <f>'RND 3 MSTB'!O9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY7" s="264">
         <f>'RND 3 MSTB'!P9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ7" s="264">
         <f>'RND 3 MSTB'!Q9</f>
@@ -24207,15 +24199,15 @@
       </c>
       <c r="BA7" s="264">
         <f>'RND 3 MSTB'!R9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB7" s="264">
         <f>'RND 3 MSTB'!S9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC7" s="264">
         <f>'RND 3 MSTB'!T9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD7" s="265">
         <f>'RND 4 STBL'!C9</f>
@@ -24585,7 +24577,7 @@
       </c>
       <c r="AL8" s="264">
         <f>'RND 3 MSTB'!C10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM8" s="264">
         <f>'RND 3 MSTB'!D10</f>
@@ -24593,39 +24585,39 @@
       </c>
       <c r="AN8" s="264">
         <f>'RND 3 MSTB'!E10</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO8" s="264">
         <f>'RND 3 MSTB'!F10</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP8" s="264">
         <f>'RND 3 MSTB'!G10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ8" s="264">
         <f>'RND 3 MSTB'!H10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR8" s="264">
         <f>'RND 3 MSTB'!I10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS8" s="264">
         <f>'RND 3 MSTB'!J10</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT8" s="264">
         <f>'RND 3 MSTB'!K10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU8" s="264">
         <f>'RND 3 MSTB'!L10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV8" s="264">
         <f>'RND 3 MSTB'!M10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW8" s="264">
         <f>'RND 3 MSTB'!N10</f>
@@ -24633,11 +24625,11 @@
       </c>
       <c r="AX8" s="264">
         <f>'RND 3 MSTB'!O10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY8" s="264">
         <f>'RND 3 MSTB'!P10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ8" s="264">
         <f>'RND 3 MSTB'!Q10</f>
@@ -24645,15 +24637,15 @@
       </c>
       <c r="BA8" s="264">
         <f>'RND 3 MSTB'!R10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB8" s="264">
         <f>'RND 3 MSTB'!S10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC8" s="264">
         <f>'RND 3 MSTB'!T10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD8" s="265">
         <f>'RND 4 STBL'!C10</f>
@@ -25023,7 +25015,7 @@
       </c>
       <c r="AL9" s="264">
         <f>'RND 3 MSTB'!C11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM9" s="264">
         <f>'RND 3 MSTB'!D11</f>
@@ -25031,39 +25023,39 @@
       </c>
       <c r="AN9" s="264">
         <f>'RND 3 MSTB'!E11</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO9" s="264">
         <f>'RND 3 MSTB'!F11</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP9" s="264">
         <f>'RND 3 MSTB'!G11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ9" s="264">
         <f>'RND 3 MSTB'!H11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR9" s="264">
         <f>'RND 3 MSTB'!I11</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS9" s="264">
         <f>'RND 3 MSTB'!J11</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT9" s="264">
         <f>'RND 3 MSTB'!K11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU9" s="264">
         <f>'RND 3 MSTB'!L11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV9" s="264">
         <f>'RND 3 MSTB'!M11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW9" s="264">
         <f>'RND 3 MSTB'!N11</f>
@@ -25071,11 +25063,11 @@
       </c>
       <c r="AX9" s="264">
         <f>'RND 3 MSTB'!O11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY9" s="264">
         <f>'RND 3 MSTB'!P11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ9" s="264">
         <f>'RND 3 MSTB'!Q11</f>
@@ -25083,15 +25075,15 @@
       </c>
       <c r="BA9" s="264">
         <f>'RND 3 MSTB'!R11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB9" s="264">
         <f>'RND 3 MSTB'!S11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC9" s="264">
         <f>'RND 3 MSTB'!T11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD9" s="265">
         <f>'RND 4 STBL'!C11</f>
@@ -25461,7 +25453,7 @@
       </c>
       <c r="AL10" s="264">
         <f>'RND 3 MSTB'!C12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM10" s="264">
         <f>'RND 3 MSTB'!D12</f>
@@ -25469,39 +25461,39 @@
       </c>
       <c r="AN10" s="264">
         <f>'RND 3 MSTB'!E12</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO10" s="264">
         <f>'RND 3 MSTB'!F12</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP10" s="264">
         <f>'RND 3 MSTB'!G12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ10" s="264">
         <f>'RND 3 MSTB'!H12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR10" s="264">
         <f>'RND 3 MSTB'!I12</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS10" s="264">
         <f>'RND 3 MSTB'!J12</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT10" s="264">
         <f>'RND 3 MSTB'!K12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU10" s="264">
         <f>'RND 3 MSTB'!L12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV10" s="264">
         <f>'RND 3 MSTB'!M12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW10" s="264">
         <f>'RND 3 MSTB'!N12</f>
@@ -25509,11 +25501,11 @@
       </c>
       <c r="AX10" s="264">
         <f>'RND 3 MSTB'!O12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY10" s="264">
         <f>'RND 3 MSTB'!P12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ10" s="264">
         <f>'RND 3 MSTB'!Q12</f>
@@ -25521,15 +25513,15 @@
       </c>
       <c r="BA10" s="264">
         <f>'RND 3 MSTB'!R12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB10" s="264">
         <f>'RND 3 MSTB'!S12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC10" s="264">
         <f>'RND 3 MSTB'!T12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD10" s="265">
         <f>'RND 4 STBL'!C12</f>
@@ -25899,7 +25891,7 @@
       </c>
       <c r="AL11" s="264">
         <f>'RND 3 MSTB'!C13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM11" s="264">
         <f>'RND 3 MSTB'!D13</f>
@@ -25907,39 +25899,39 @@
       </c>
       <c r="AN11" s="264">
         <f>'RND 3 MSTB'!E13</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO11" s="264">
         <f>'RND 3 MSTB'!F13</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP11" s="264">
         <f>'RND 3 MSTB'!G13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ11" s="264">
         <f>'RND 3 MSTB'!H13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR11" s="264">
         <f>'RND 3 MSTB'!I13</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS11" s="264">
         <f>'RND 3 MSTB'!J13</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT11" s="264">
         <f>'RND 3 MSTB'!K13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU11" s="264">
         <f>'RND 3 MSTB'!L13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV11" s="264">
         <f>'RND 3 MSTB'!M13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW11" s="264">
         <f>'RND 3 MSTB'!N13</f>
@@ -25947,11 +25939,11 @@
       </c>
       <c r="AX11" s="264">
         <f>'RND 3 MSTB'!O13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY11" s="264">
         <f>'RND 3 MSTB'!P13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ11" s="264">
         <f>'RND 3 MSTB'!Q13</f>
@@ -25959,15 +25951,15 @@
       </c>
       <c r="BA11" s="264">
         <f>'RND 3 MSTB'!R13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB11" s="264">
         <f>'RND 3 MSTB'!S13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC11" s="264">
         <f>'RND 3 MSTB'!T13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD11" s="265">
         <f>'RND 4 STBL'!C13</f>
@@ -26337,7 +26329,7 @@
       </c>
       <c r="AL12" s="264">
         <f>'RND 3 MSTB'!C14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM12" s="264">
         <f>'RND 3 MSTB'!D14</f>
@@ -26345,39 +26337,39 @@
       </c>
       <c r="AN12" s="264">
         <f>'RND 3 MSTB'!E14</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO12" s="264">
         <f>'RND 3 MSTB'!F14</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP12" s="264">
         <f>'RND 3 MSTB'!G14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ12" s="264">
         <f>'RND 3 MSTB'!H14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR12" s="264">
         <f>'RND 3 MSTB'!I14</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AS12" s="264">
         <f>'RND 3 MSTB'!J14</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AT12" s="264">
         <f>'RND 3 MSTB'!K14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" s="264">
         <f>'RND 3 MSTB'!L14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV12" s="264">
         <f>'RND 3 MSTB'!M14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW12" s="264">
         <f>'RND 3 MSTB'!N14</f>
@@ -26385,11 +26377,11 @@
       </c>
       <c r="AX12" s="264">
         <f>'RND 3 MSTB'!O14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY12" s="264">
         <f>'RND 3 MSTB'!P14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ12" s="264">
         <f>'RND 3 MSTB'!Q14</f>
@@ -26397,15 +26389,15 @@
       </c>
       <c r="BA12" s="264">
         <f>'RND 3 MSTB'!R14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB12" s="264">
         <f>'RND 3 MSTB'!S14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC12" s="264">
         <f>'RND 3 MSTB'!T14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD12" s="265">
         <f>'RND 4 STBL'!C14</f>
@@ -26775,7 +26767,7 @@
       </c>
       <c r="AL15" s="266">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM15" s="266">
         <f t="shared" si="0"/>
@@ -26783,39 +26775,39 @@
       </c>
       <c r="AN15" s="266">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO15" s="266">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="266">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="266">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="266">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS15" s="266">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="266">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="266">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV15" s="266">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15" s="266">
         <f t="shared" si="0"/>
@@ -26823,11 +26815,11 @@
       </c>
       <c r="AX15" s="266">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY15" s="266">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ15" s="266">
         <f t="shared" si="0"/>
@@ -26835,15 +26827,15 @@
       </c>
       <c r="BA15" s="266">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="266">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC15" s="266">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="134">
         <f t="shared" si="0"/>
@@ -27213,7 +27205,7 @@
       </c>
       <c r="AL16" s="266">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="266">
         <f t="shared" si="4"/>
@@ -27221,39 +27213,39 @@
       </c>
       <c r="AN16" s="266">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO16" s="266">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP16" s="266">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="266">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="266">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS16" s="266">
         <f t="shared" si="4"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="266">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="266">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV16" s="266">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="266">
         <f t="shared" si="4"/>
@@ -27261,11 +27253,11 @@
       </c>
       <c r="AX16" s="266">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY16" s="266">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ16" s="266">
         <f t="shared" si="4"/>
@@ -27273,15 +27265,15 @@
       </c>
       <c r="BA16" s="266">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="266">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC16" s="266">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="134">
         <f t="shared" si="4"/>
@@ -27651,7 +27643,7 @@
       </c>
       <c r="AL17" s="266">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM17" s="266">
         <f t="shared" si="7"/>
@@ -27659,39 +27651,39 @@
       </c>
       <c r="AN17" s="266">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="266">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="266">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="266">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="266">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS17" s="266">
         <f t="shared" si="7"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="266">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU17" s="266">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV17" s="266">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17" s="266">
         <f t="shared" si="7"/>
@@ -27699,11 +27691,11 @@
       </c>
       <c r="AX17" s="266">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="266">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ17" s="266">
         <f t="shared" si="7"/>
@@ -27711,15 +27703,15 @@
       </c>
       <c r="BA17" s="266">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="266">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC17" s="266">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="134">
         <f t="shared" si="7"/>
@@ -28089,7 +28081,7 @@
       </c>
       <c r="AL18" s="266">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM18" s="266">
         <f t="shared" si="10"/>
@@ -28097,39 +28089,39 @@
       </c>
       <c r="AN18" s="266">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO18" s="266">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="266">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="266">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="266">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS18" s="266">
         <f t="shared" si="10"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="266">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU18" s="266">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV18" s="266">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW18" s="266">
         <f t="shared" si="10"/>
@@ -28137,11 +28129,11 @@
       </c>
       <c r="AX18" s="266">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY18" s="266">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ18" s="266">
         <f t="shared" si="10"/>
@@ -28149,15 +28141,15 @@
       </c>
       <c r="BA18" s="266">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="266">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC18" s="266">
         <f t="shared" si="10"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="134">
         <f t="shared" si="10"/>
@@ -28527,7 +28519,7 @@
       </c>
       <c r="AL19" s="266">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM19" s="266">
         <f t="shared" si="13"/>
@@ -28535,39 +28527,39 @@
       </c>
       <c r="AN19" s="266">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO19" s="266">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19" s="266">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="266">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="266">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS19" s="266">
         <f t="shared" si="13"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="266">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU19" s="266">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV19" s="266">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW19" s="266">
         <f t="shared" si="13"/>
@@ -28575,11 +28567,11 @@
       </c>
       <c r="AX19" s="266">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY19" s="266">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ19" s="266">
         <f t="shared" si="13"/>
@@ -28587,15 +28579,15 @@
       </c>
       <c r="BA19" s="266">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB19" s="266">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC19" s="266">
         <f t="shared" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="134">
         <f t="shared" si="13"/>
@@ -28965,7 +28957,7 @@
       </c>
       <c r="AL20" s="266">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM20" s="266">
         <f t="shared" si="16"/>
@@ -28973,39 +28965,39 @@
       </c>
       <c r="AN20" s="266">
         <f t="shared" si="16"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO20" s="266">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="266">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="266">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="266">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS20" s="266">
         <f t="shared" si="16"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="266">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="266">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV20" s="266">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW20" s="266">
         <f t="shared" si="16"/>
@@ -29013,11 +29005,11 @@
       </c>
       <c r="AX20" s="266">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="266">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ20" s="266">
         <f t="shared" si="16"/>
@@ -29025,15 +29017,15 @@
       </c>
       <c r="BA20" s="266">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="266">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC20" s="266">
         <f t="shared" si="16"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="134">
         <f t="shared" si="16"/>
@@ -29403,7 +29395,7 @@
       </c>
       <c r="AL21" s="266">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM21" s="266">
         <f t="shared" si="19"/>
@@ -29411,39 +29403,39 @@
       </c>
       <c r="AN21" s="266">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO21" s="266">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="266">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ21" s="266">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR21" s="266">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS21" s="266">
         <f t="shared" si="19"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="266">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU21" s="266">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV21" s="266">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW21" s="266">
         <f t="shared" si="19"/>
@@ -29451,11 +29443,11 @@
       </c>
       <c r="AX21" s="266">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="266">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ21" s="266">
         <f t="shared" si="19"/>
@@ -29463,15 +29455,15 @@
       </c>
       <c r="BA21" s="266">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB21" s="266">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="266">
         <f t="shared" si="19"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="134">
         <f t="shared" si="19"/>
@@ -29841,7 +29833,7 @@
       </c>
       <c r="AL22" s="266">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM22" s="266">
         <f t="shared" si="22"/>
@@ -29849,39 +29841,39 @@
       </c>
       <c r="AN22" s="266">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="266">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="266">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="266">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="266">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AS22" s="266">
         <f t="shared" si="22"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="266">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="266">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV22" s="266">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22" s="266">
         <f t="shared" si="22"/>
@@ -29889,11 +29881,11 @@
       </c>
       <c r="AX22" s="266">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="266">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ22" s="266">
         <f t="shared" si="22"/>
@@ -29901,15 +29893,15 @@
       </c>
       <c r="BA22" s="266">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB22" s="266">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC22" s="266">
         <f t="shared" si="22"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="134">
         <f t="shared" si="22"/>
@@ -30279,7 +30271,7 @@
       </c>
       <c r="AL25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM25" s="283" t="str">
         <f t="shared" si="25"/>
@@ -30287,39 +30279,39 @@
       </c>
       <c r="AN25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW25" s="283" t="str">
         <f t="shared" si="25"/>
@@ -30327,11 +30319,11 @@
       </c>
       <c r="AX25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ25" s="283" t="str">
         <f t="shared" si="25"/>
@@ -30339,15 +30331,15 @@
       </c>
       <c r="BA25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC25" s="283" t="str">
         <f t="shared" si="25"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD25" s="283" t="str">
         <f t="shared" si="25"/>
@@ -30717,7 +30709,7 @@
       </c>
       <c r="AL26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM26" s="283" t="str">
         <f t="shared" si="29"/>
@@ -30725,39 +30717,39 @@
       </c>
       <c r="AN26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW26" s="283" t="str">
         <f t="shared" si="29"/>
@@ -30765,11 +30757,11 @@
       </c>
       <c r="AX26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ26" s="283" t="str">
         <f t="shared" si="29"/>
@@ -30777,15 +30769,15 @@
       </c>
       <c r="BA26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC26" s="283" t="str">
         <f t="shared" si="29"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD26" s="283" t="str">
         <f t="shared" si="29"/>
@@ -31155,7 +31147,7 @@
       </c>
       <c r="AL27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM27" s="283" t="str">
         <f t="shared" si="32"/>
@@ -31163,39 +31155,39 @@
       </c>
       <c r="AN27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW27" s="283" t="str">
         <f t="shared" si="32"/>
@@ -31203,11 +31195,11 @@
       </c>
       <c r="AX27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ27" s="283" t="str">
         <f t="shared" si="32"/>
@@ -31215,15 +31207,15 @@
       </c>
       <c r="BA27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC27" s="283" t="str">
         <f t="shared" si="32"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD27" s="283" t="str">
         <f t="shared" si="32"/>
@@ -31593,7 +31585,7 @@
       </c>
       <c r="AL28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM28" s="283" t="str">
         <f t="shared" si="35"/>
@@ -31601,39 +31593,39 @@
       </c>
       <c r="AN28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW28" s="283" t="str">
         <f t="shared" si="35"/>
@@ -31641,11 +31633,11 @@
       </c>
       <c r="AX28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ28" s="283" t="str">
         <f t="shared" si="35"/>
@@ -31653,15 +31645,15 @@
       </c>
       <c r="BA28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC28" s="283" t="str">
         <f t="shared" si="35"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD28" s="283" t="str">
         <f t="shared" si="35"/>
@@ -32031,7 +32023,7 @@
       </c>
       <c r="AL29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM29" s="283" t="str">
         <f t="shared" si="38"/>
@@ -32039,39 +32031,39 @@
       </c>
       <c r="AN29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW29" s="283" t="str">
         <f t="shared" si="38"/>
@@ -32079,11 +32071,11 @@
       </c>
       <c r="AX29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ29" s="283" t="str">
         <f t="shared" si="38"/>
@@ -32091,15 +32083,15 @@
       </c>
       <c r="BA29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC29" s="283" t="str">
         <f t="shared" si="38"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD29" s="283" t="str">
         <f t="shared" si="38"/>
@@ -32469,7 +32461,7 @@
       </c>
       <c r="AL30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM30" s="283" t="str">
         <f t="shared" si="41"/>
@@ -32477,39 +32469,39 @@
       </c>
       <c r="AN30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW30" s="283" t="str">
         <f t="shared" si="41"/>
@@ -32517,11 +32509,11 @@
       </c>
       <c r="AX30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ30" s="283" t="str">
         <f t="shared" si="41"/>
@@ -32529,15 +32521,15 @@
       </c>
       <c r="BA30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC30" s="283" t="str">
         <f t="shared" si="41"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD30" s="283" t="str">
         <f t="shared" si="41"/>
@@ -32907,7 +32899,7 @@
       </c>
       <c r="AL31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM31" s="283" t="str">
         <f t="shared" si="44"/>
@@ -32915,39 +32907,39 @@
       </c>
       <c r="AN31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW31" s="283" t="str">
         <f t="shared" si="44"/>
@@ -32955,11 +32947,11 @@
       </c>
       <c r="AX31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ31" s="283" t="str">
         <f t="shared" si="44"/>
@@ -32967,15 +32959,15 @@
       </c>
       <c r="BA31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC31" s="283" t="str">
         <f t="shared" si="44"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD31" s="283" t="str">
         <f t="shared" si="44"/>
@@ -33345,7 +33337,7 @@
       </c>
       <c r="AL32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AM32" s="283" t="str">
         <f t="shared" si="47"/>
@@ -33353,39 +33345,39 @@
       </c>
       <c r="AN32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>QUAD+</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AO32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BOGEY</v>
+        <v>PAR</v>
       </c>
       <c r="AP32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AQ32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AR32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BIRDY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AS32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>ALBATROSS</v>
+        <v>BOGEY</v>
       </c>
       <c r="AT32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AU32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AV32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="AW32" s="283" t="str">
         <f t="shared" si="47"/>
@@ -33393,11 +33385,11 @@
       </c>
       <c r="AX32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BIRDY</v>
+        <v>BOGEY</v>
       </c>
       <c r="AY32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="AZ32" s="283" t="str">
         <f t="shared" si="47"/>
@@ -33405,15 +33397,15 @@
       </c>
       <c r="BA32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>PAR</v>
+        <v>BOGEY</v>
       </c>
       <c r="BB32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BOGEY</v>
+        <v>DOUBLE</v>
       </c>
       <c r="BC32" s="283" t="str">
         <f t="shared" si="47"/>
-        <v>BIRDY</v>
+        <v>PAR</v>
       </c>
       <c r="BD32" s="283" t="str">
         <f t="shared" si="47"/>
@@ -33684,19 +33676,19 @@
       </c>
       <c r="C35">
         <f t="shared" ref="C35:H35" si="49">COUNTIF($B$25:$DE$25,C34)</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <f t="shared" si="49"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <f t="shared" si="49"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F35">
         <f t="shared" si="49"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G35">
         <f t="shared" si="49"/>
@@ -33704,7 +33696,7 @@
       </c>
       <c r="H35">
         <f t="shared" si="49"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J35">
         <f>SUM(B5:S5)</f>
@@ -33716,7 +33708,7 @@
       </c>
       <c r="L35">
         <f>SUM(AL5:BC5)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M35">
         <f>SUM(BD5:BU5)</f>
@@ -33742,19 +33734,19 @@
       </c>
       <c r="C36">
         <f t="shared" ref="C36:H36" si="51">COUNTIF($B$26:$DE$26,C34)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D36">
         <f t="shared" si="51"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <f t="shared" si="51"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F36">
         <f t="shared" si="51"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G36">
         <f t="shared" si="51"/>
@@ -33762,7 +33754,7 @@
       </c>
       <c r="H36">
         <f t="shared" si="51"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J36">
         <f t="shared" ref="J36:J42" si="52">SUM(B6:S6)</f>
@@ -33774,7 +33766,7 @@
       </c>
       <c r="L36">
         <f t="shared" ref="L36:L42" si="54">SUM(AL6:BC6)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M36">
         <f t="shared" ref="M36:M42" si="55">SUM(BD6:BU6)</f>
@@ -33800,19 +33792,19 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:H37" si="58">COUNTIF($B$27:$DE$27,C34)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D37">
         <f t="shared" si="58"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <f t="shared" si="58"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F37">
         <f t="shared" si="58"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G37">
         <f t="shared" si="58"/>
@@ -33820,7 +33812,7 @@
       </c>
       <c r="H37">
         <f t="shared" si="58"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J37">
         <f t="shared" si="52"/>
@@ -33832,7 +33824,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="54"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M37">
         <f t="shared" si="55"/>
@@ -33858,19 +33850,19 @@
       </c>
       <c r="C38">
         <f t="shared" ref="C38:H38" si="59">COUNTIF($B$28:$DE$28,C34)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <f t="shared" si="59"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38">
         <f t="shared" si="59"/>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F38">
         <f t="shared" si="59"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G38">
         <f t="shared" si="59"/>
@@ -33878,7 +33870,7 @@
       </c>
       <c r="H38">
         <f t="shared" si="59"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38">
         <f t="shared" si="52"/>
@@ -33890,7 +33882,7 @@
       </c>
       <c r="L38">
         <f t="shared" si="54"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M38">
         <f t="shared" si="55"/>
@@ -33916,19 +33908,19 @@
       </c>
       <c r="C39">
         <f t="shared" ref="C39:H39" si="60">COUNTIF($B$29:$DE$29,C34)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D39">
         <f t="shared" si="60"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <f t="shared" si="60"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F39">
         <f t="shared" si="60"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <f t="shared" si="60"/>
@@ -33936,7 +33928,7 @@
       </c>
       <c r="H39">
         <f t="shared" si="60"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J39">
         <f t="shared" si="52"/>
@@ -33948,7 +33940,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="54"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M39">
         <f t="shared" si="55"/>
@@ -33974,19 +33966,19 @@
       </c>
       <c r="C40">
         <f t="shared" ref="C40:H40" si="61">COUNTIF($B$30:$DE$30,C34)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <f t="shared" si="61"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E40">
         <f t="shared" si="61"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F40">
         <f t="shared" si="61"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G40">
         <f t="shared" si="61"/>
@@ -33994,7 +33986,7 @@
       </c>
       <c r="H40">
         <f t="shared" si="61"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J40">
         <f t="shared" si="52"/>
@@ -34006,7 +33998,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="54"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M40">
         <f t="shared" si="55"/>
@@ -34032,19 +34024,19 @@
       </c>
       <c r="C41">
         <f t="shared" ref="C41:H41" si="62">COUNTIF($B$31:$DE$31,C34)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <f t="shared" si="62"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <f t="shared" si="62"/>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F41">
         <f t="shared" si="62"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G41">
         <f t="shared" si="62"/>
@@ -34052,7 +34044,7 @@
       </c>
       <c r="H41">
         <f t="shared" si="62"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J41">
         <f t="shared" si="52"/>
@@ -34064,7 +34056,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="54"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M41">
         <f t="shared" si="55"/>
@@ -34090,19 +34082,19 @@
       </c>
       <c r="C42">
         <f t="shared" ref="C42:H42" si="63">COUNTIF($B$32:$DE$32,C34)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <f t="shared" si="63"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <f t="shared" si="63"/>
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F42">
         <f t="shared" si="63"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <f t="shared" si="63"/>
@@ -34110,7 +34102,7 @@
       </c>
       <c r="H42">
         <f t="shared" si="63"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J42">
         <f t="shared" si="52"/>
@@ -34122,7 +34114,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="54"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M42">
         <f t="shared" si="55"/>
@@ -34144,19 +34136,19 @@
       </c>
       <c r="C44">
         <f t="shared" ref="C44:H44" si="64">LARGE(C35:C42,1)</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D44">
         <f t="shared" si="64"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E44">
         <f t="shared" si="64"/>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F44">
         <f t="shared" si="64"/>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G44">
         <f t="shared" si="64"/>
@@ -34164,7 +34156,7 @@
       </c>
       <c r="H44">
         <f t="shared" si="64"/>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -50543,7 +50535,7 @@
       </c>
       <c r="C7">
         <f>'RND 3 MSTB'!AF14</f>
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="D7" s="84">
         <f>'RND 3 MSTB'!AG14</f>
@@ -50561,7 +50553,7 @@
       </c>
       <c r="C8">
         <f>'RND 3 MSTB'!AF15</f>
-        <v>38</v>
+        <v>-7</v>
       </c>
       <c r="D8" s="84">
         <f>'RND 3 MSTB'!AG15</f>
@@ -50579,7 +50571,7 @@
       </c>
       <c r="C9">
         <f>'RND 3 MSTB'!AF16</f>
-        <v>35</v>
+        <v>-8</v>
       </c>
       <c r="D9" s="84">
         <f>'RND 3 MSTB'!AG16</f>
@@ -50597,7 +50589,7 @@
       </c>
       <c r="C10">
         <f>'RND 3 MSTB'!AF17</f>
-        <v>34</v>
+        <v>-9</v>
       </c>
       <c r="D10" s="84">
         <f>'RND 3 MSTB'!AG17</f>
@@ -50615,7 +50607,7 @@
       </c>
       <c r="C11">
         <f>'RND 3 MSTB'!AF18</f>
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="D11" s="84">
         <f>'RND 3 MSTB'!AG18</f>
@@ -50633,7 +50625,7 @@
       </c>
       <c r="C12">
         <f>'RND 3 MSTB'!AF19</f>
-        <v>29</v>
+        <v>-15</v>
       </c>
       <c r="D12" s="84">
         <f>'RND 3 MSTB'!AG19</f>
@@ -50651,7 +50643,7 @@
       </c>
       <c r="C13">
         <f>'RND 3 MSTB'!AF20</f>
-        <v>27</v>
+        <v>-16</v>
       </c>
       <c r="D13" s="84">
         <f>'RND 3 MSTB'!AG20</f>
@@ -50669,7 +50661,7 @@
       </c>
       <c r="C14">
         <f>'RND 3 MSTB'!AF21</f>
-        <v>25</v>
+        <v>-17</v>
       </c>
       <c r="D14" s="84">
         <f>'RND 3 MSTB'!AG21</f>
@@ -50950,7 +50942,7 @@
       <c r="D26" s="83"/>
       <c r="E26" s="1">
         <f>'RND 3 MSTB'!C7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1">
         <f>'RND 3 MSTB'!D7</f>
@@ -50958,39 +50950,39 @@
       </c>
       <c r="G26" s="1">
         <f>'RND 3 MSTB'!E7</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H26" s="1">
         <f>'RND 3 MSTB'!F7</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I26" s="1">
         <f>'RND 3 MSTB'!G7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1">
         <f>'RND 3 MSTB'!H7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K26" s="1">
         <f>'RND 3 MSTB'!I7</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L26" s="1">
         <f>'RND 3 MSTB'!J7</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M26" s="1">
         <f>'RND 3 MSTB'!K7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26" s="1">
         <f>'RND 3 MSTB'!L7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O26" s="1">
         <f>'RND 3 MSTB'!M7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P26" s="1">
         <f>'RND 3 MSTB'!N7</f>
@@ -50998,11 +50990,11 @@
       </c>
       <c r="Q26" s="1">
         <f>'RND 3 MSTB'!O7</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R26" s="1">
         <f>'RND 3 MSTB'!P7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S26" s="1">
         <f>'RND 3 MSTB'!Q7</f>
@@ -51010,19 +51002,19 @@
       </c>
       <c r="T26" s="1">
         <f>'RND 3 MSTB'!R7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U26" s="1">
         <f>'RND 3 MSTB'!S7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" s="1">
         <f>'RND 3 MSTB'!T7</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W26" s="89">
         <f>'RND 3 MSTB'!U7</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -51037,7 +51029,7 @@
       <c r="D27" s="83"/>
       <c r="E27" s="1">
         <f>'RND 3 MSTB'!C8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="1">
         <f>'RND 3 MSTB'!D8</f>
@@ -51045,39 +51037,39 @@
       </c>
       <c r="G27" s="1">
         <f>'RND 3 MSTB'!E8</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H27" s="1">
         <f>'RND 3 MSTB'!F8</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I27" s="1">
         <f>'RND 3 MSTB'!G8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" s="1">
         <f>'RND 3 MSTB'!H8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" s="1">
         <f>'RND 3 MSTB'!I8</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L27" s="1">
         <f>'RND 3 MSTB'!J8</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M27" s="1">
         <f>'RND 3 MSTB'!K8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" s="1">
         <f>'RND 3 MSTB'!L8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O27" s="1">
         <f>'RND 3 MSTB'!M8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P27" s="1">
         <f>'RND 3 MSTB'!N8</f>
@@ -51085,11 +51077,11 @@
       </c>
       <c r="Q27" s="1">
         <f>'RND 3 MSTB'!O8</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R27" s="1">
         <f>'RND 3 MSTB'!P8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" s="1">
         <f>'RND 3 MSTB'!Q8</f>
@@ -51097,19 +51089,19 @@
       </c>
       <c r="T27" s="1">
         <f>'RND 3 MSTB'!R8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U27" s="1">
         <f>'RND 3 MSTB'!S8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" s="1">
         <f>'RND 3 MSTB'!T8</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W27" s="89">
         <f>'RND 3 MSTB'!U8</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -51124,7 +51116,7 @@
       <c r="D28" s="83"/>
       <c r="E28" s="1">
         <f>'RND 3 MSTB'!C9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F28" s="1">
         <f>'RND 3 MSTB'!D9</f>
@@ -51132,39 +51124,39 @@
       </c>
       <c r="G28" s="1">
         <f>'RND 3 MSTB'!E9</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1">
         <f>'RND 3 MSTB'!F9</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="1">
         <f>'RND 3 MSTB'!G9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" s="1">
         <f>'RND 3 MSTB'!H9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K28" s="1">
         <f>'RND 3 MSTB'!I9</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L28" s="1">
         <f>'RND 3 MSTB'!J9</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M28" s="1">
         <f>'RND 3 MSTB'!K9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" s="1">
         <f>'RND 3 MSTB'!L9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O28" s="1">
         <f>'RND 3 MSTB'!M9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P28" s="1">
         <f>'RND 3 MSTB'!N9</f>
@@ -51172,11 +51164,11 @@
       </c>
       <c r="Q28" s="1">
         <f>'RND 3 MSTB'!O9</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R28" s="1">
         <f>'RND 3 MSTB'!P9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S28" s="1">
         <f>'RND 3 MSTB'!Q9</f>
@@ -51184,19 +51176,19 @@
       </c>
       <c r="T28" s="1">
         <f>'RND 3 MSTB'!R9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U28" s="1">
         <f>'RND 3 MSTB'!S9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" s="1">
         <f>'RND 3 MSTB'!T9</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W28" s="89">
         <f>'RND 3 MSTB'!U9</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -51211,7 +51203,7 @@
       <c r="D29" s="83"/>
       <c r="E29" s="1">
         <f>'RND 3 MSTB'!C10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1">
         <f>'RND 3 MSTB'!D10</f>
@@ -51219,39 +51211,39 @@
       </c>
       <c r="G29" s="1">
         <f>'RND 3 MSTB'!E10</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H29" s="1">
         <f>'RND 3 MSTB'!F10</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I29" s="1">
         <f>'RND 3 MSTB'!G10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J29" s="1">
         <f>'RND 3 MSTB'!H10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K29" s="1">
         <f>'RND 3 MSTB'!I10</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L29" s="1">
         <f>'RND 3 MSTB'!J10</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M29" s="1">
         <f>'RND 3 MSTB'!K10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" s="1">
         <f>'RND 3 MSTB'!L10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O29" s="1">
         <f>'RND 3 MSTB'!M10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P29" s="1">
         <f>'RND 3 MSTB'!N10</f>
@@ -51259,11 +51251,11 @@
       </c>
       <c r="Q29" s="1">
         <f>'RND 3 MSTB'!O10</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" s="1">
         <f>'RND 3 MSTB'!P10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" s="1">
         <f>'RND 3 MSTB'!Q10</f>
@@ -51271,19 +51263,19 @@
       </c>
       <c r="T29" s="1">
         <f>'RND 3 MSTB'!R10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U29" s="1">
         <f>'RND 3 MSTB'!S10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" s="1">
         <f>'RND 3 MSTB'!T10</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W29" s="89">
         <f>'RND 3 MSTB'!U10</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -51298,7 +51290,7 @@
       <c r="D30" s="83"/>
       <c r="E30" s="1">
         <f>'RND 3 MSTB'!C11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F30" s="1">
         <f>'RND 3 MSTB'!D11</f>
@@ -51306,39 +51298,39 @@
       </c>
       <c r="G30" s="1">
         <f>'RND 3 MSTB'!E11</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H30" s="1">
         <f>'RND 3 MSTB'!F11</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I30" s="1">
         <f>'RND 3 MSTB'!G11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J30" s="1">
         <f>'RND 3 MSTB'!H11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K30" s="1">
         <f>'RND 3 MSTB'!I11</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L30" s="1">
         <f>'RND 3 MSTB'!J11</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M30" s="1">
         <f>'RND 3 MSTB'!K11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" s="1">
         <f>'RND 3 MSTB'!L11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O30" s="1">
         <f>'RND 3 MSTB'!M11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P30" s="1">
         <f>'RND 3 MSTB'!N11</f>
@@ -51346,11 +51338,11 @@
       </c>
       <c r="Q30" s="1">
         <f>'RND 3 MSTB'!O11</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" s="1">
         <f>'RND 3 MSTB'!P11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S30" s="1">
         <f>'RND 3 MSTB'!Q11</f>
@@ -51358,19 +51350,19 @@
       </c>
       <c r="T30" s="1">
         <f>'RND 3 MSTB'!R11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U30" s="1">
         <f>'RND 3 MSTB'!S11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" s="1">
         <f>'RND 3 MSTB'!T11</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W30" s="89">
         <f>'RND 3 MSTB'!U11</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -51385,7 +51377,7 @@
       <c r="D31" s="83"/>
       <c r="E31" s="1">
         <f>'RND 3 MSTB'!C12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
         <f>'RND 3 MSTB'!D12</f>
@@ -51393,39 +51385,39 @@
       </c>
       <c r="G31" s="1">
         <f>'RND 3 MSTB'!E12</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31" s="1">
         <f>'RND 3 MSTB'!F12</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="1">
         <f>'RND 3 MSTB'!G12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1">
         <f>'RND 3 MSTB'!H12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31" s="1">
         <f>'RND 3 MSTB'!I12</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L31" s="1">
         <f>'RND 3 MSTB'!J12</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M31" s="1">
         <f>'RND 3 MSTB'!K12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1">
         <f>'RND 3 MSTB'!L12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O31" s="1">
         <f>'RND 3 MSTB'!M12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P31" s="1">
         <f>'RND 3 MSTB'!N12</f>
@@ -51433,11 +51425,11 @@
       </c>
       <c r="Q31" s="1">
         <f>'RND 3 MSTB'!O12</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" s="1">
         <f>'RND 3 MSTB'!P12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" s="1">
         <f>'RND 3 MSTB'!Q12</f>
@@ -51445,19 +51437,19 @@
       </c>
       <c r="T31" s="1">
         <f>'RND 3 MSTB'!R12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U31" s="1">
         <f>'RND 3 MSTB'!S12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" s="1">
         <f>'RND 3 MSTB'!T12</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W31" s="89">
         <f>'RND 3 MSTB'!U12</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -51472,7 +51464,7 @@
       <c r="D32" s="83"/>
       <c r="E32" s="1">
         <f>'RND 3 MSTB'!C13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
         <f>'RND 3 MSTB'!D13</f>
@@ -51480,39 +51472,39 @@
       </c>
       <c r="G32" s="1">
         <f>'RND 3 MSTB'!E13</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1">
         <f>'RND 3 MSTB'!F13</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I32" s="1">
         <f>'RND 3 MSTB'!G13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1">
         <f>'RND 3 MSTB'!H13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1">
         <f>'RND 3 MSTB'!I13</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L32" s="1">
         <f>'RND 3 MSTB'!J13</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M32" s="1">
         <f>'RND 3 MSTB'!K13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" s="1">
         <f>'RND 3 MSTB'!L13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O32" s="1">
         <f>'RND 3 MSTB'!M13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P32" s="1">
         <f>'RND 3 MSTB'!N13</f>
@@ -51520,11 +51512,11 @@
       </c>
       <c r="Q32" s="1">
         <f>'RND 3 MSTB'!O13</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" s="1">
         <f>'RND 3 MSTB'!P13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1">
         <f>'RND 3 MSTB'!Q13</f>
@@ -51532,19 +51524,19 @@
       </c>
       <c r="T32" s="1">
         <f>'RND 3 MSTB'!R13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U32" s="1">
         <f>'RND 3 MSTB'!S13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" s="1">
         <f>'RND 3 MSTB'!T13</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W32" s="89">
         <f>'RND 3 MSTB'!U13</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -51559,7 +51551,7 @@
       <c r="D33" s="85"/>
       <c r="E33" s="90">
         <f>'RND 3 MSTB'!C14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F33" s="90">
         <f>'RND 3 MSTB'!D14</f>
@@ -51567,39 +51559,39 @@
       </c>
       <c r="G33" s="90">
         <f>'RND 3 MSTB'!E14</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H33" s="90">
         <f>'RND 3 MSTB'!F14</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" s="90">
         <f>'RND 3 MSTB'!G14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J33" s="90">
         <f>'RND 3 MSTB'!H14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K33" s="90">
         <f>'RND 3 MSTB'!I14</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L33" s="90">
         <f>'RND 3 MSTB'!J14</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M33" s="90">
         <f>'RND 3 MSTB'!K14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" s="90">
         <f>'RND 3 MSTB'!L14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O33" s="90">
         <f>'RND 3 MSTB'!M14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P33" s="90">
         <f>'RND 3 MSTB'!N14</f>
@@ -51607,11 +51599,11 @@
       </c>
       <c r="Q33" s="90">
         <f>'RND 3 MSTB'!O14</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R33" s="90">
         <f>'RND 3 MSTB'!P14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" s="90">
         <f>'RND 3 MSTB'!Q14</f>
@@ -51619,19 +51611,19 @@
       </c>
       <c r="T33" s="90">
         <f>'RND 3 MSTB'!R14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U33" s="90">
         <f>'RND 3 MSTB'!S14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" s="90">
         <f>'RND 3 MSTB'!T14</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W33" s="91">
         <f>'RND 3 MSTB'!U14</f>
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -51902,7 +51894,7 @@
       <c r="D42" s="83"/>
       <c r="E42" s="1">
         <f>'RND 3 MSTB'!C55</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F42" s="1">
         <f>'RND 3 MSTB'!D55</f>
@@ -51914,35 +51906,35 @@
       </c>
       <c r="H42" s="1">
         <f>'RND 3 MSTB'!F55</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1">
         <f>'RND 3 MSTB'!G55</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J42" s="1">
         <f>'RND 3 MSTB'!H55</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K42" s="1">
         <f>'RND 3 MSTB'!I55</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L42" s="1">
         <f>'RND 3 MSTB'!J55</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M42" s="1">
         <f>'RND 3 MSTB'!K55</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N42" s="1">
         <f>'RND 3 MSTB'!L55</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O42" s="1">
         <f>'RND 3 MSTB'!M55</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P42" s="1">
         <f>'RND 3 MSTB'!N55</f>
@@ -51950,11 +51942,11 @@
       </c>
       <c r="Q42" s="1">
         <f>'RND 3 MSTB'!O55</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R42" s="1">
         <f>'RND 3 MSTB'!P55</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S42" s="1">
         <f>'RND 3 MSTB'!Q55</f>
@@ -51962,19 +51954,19 @@
       </c>
       <c r="T42" s="1">
         <f>'RND 3 MSTB'!R55</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U42" s="1">
         <f>'RND 3 MSTB'!S55</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V42" s="1">
         <f>'RND 3 MSTB'!T55</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W42" s="89">
         <f>'RND 3 MSTB'!U55</f>
-        <v>25</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
@@ -51989,7 +51981,7 @@
       <c r="D43" s="83"/>
       <c r="E43" s="1">
         <f>'RND 3 MSTB'!C56</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F43" s="1">
         <f>'RND 3 MSTB'!D56</f>
@@ -52001,35 +51993,35 @@
       </c>
       <c r="H43" s="1">
         <f>'RND 3 MSTB'!F56</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1">
         <f>'RND 3 MSTB'!G56</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J43" s="1">
         <f>'RND 3 MSTB'!H56</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K43" s="1">
         <f>'RND 3 MSTB'!I56</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L43" s="1">
         <f>'RND 3 MSTB'!J56</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M43" s="1">
         <f>'RND 3 MSTB'!K56</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="1">
         <f>'RND 3 MSTB'!L56</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O43" s="1">
         <f>'RND 3 MSTB'!M56</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P43" s="1">
         <f>'RND 3 MSTB'!N56</f>
@@ -52037,11 +52029,11 @@
       </c>
       <c r="Q43" s="1">
         <f>'RND 3 MSTB'!O56</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R43" s="1">
         <f>'RND 3 MSTB'!P56</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S43" s="1">
         <f>'RND 3 MSTB'!Q56</f>
@@ -52049,19 +52041,19 @@
       </c>
       <c r="T43" s="1">
         <f>'RND 3 MSTB'!R56</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U43" s="1">
         <f>'RND 3 MSTB'!S56</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V43" s="1">
         <f>'RND 3 MSTB'!T56</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W43" s="89">
         <f>'RND 3 MSTB'!U56</f>
-        <v>27</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -52076,7 +52068,7 @@
       <c r="D44" s="83"/>
       <c r="E44" s="1">
         <f>'RND 3 MSTB'!C57</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="1">
         <f>'RND 3 MSTB'!D57</f>
@@ -52088,35 +52080,35 @@
       </c>
       <c r="H44" s="1">
         <f>'RND 3 MSTB'!F57</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <f>'RND 3 MSTB'!G57</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J44" s="1">
         <f>'RND 3 MSTB'!H57</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K44" s="1">
         <f>'RND 3 MSTB'!I57</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L44" s="1">
         <f>'RND 3 MSTB'!J57</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M44" s="1">
         <f>'RND 3 MSTB'!K57</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N44" s="1">
         <f>'RND 3 MSTB'!L57</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O44" s="1">
         <f>'RND 3 MSTB'!M57</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P44" s="1">
         <f>'RND 3 MSTB'!N57</f>
@@ -52124,11 +52116,11 @@
       </c>
       <c r="Q44" s="1">
         <f>'RND 3 MSTB'!O57</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R44" s="1">
         <f>'RND 3 MSTB'!P57</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S44" s="1">
         <f>'RND 3 MSTB'!Q57</f>
@@ -52136,19 +52128,19 @@
       </c>
       <c r="T44" s="1">
         <f>'RND 3 MSTB'!R57</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U44" s="1">
         <f>'RND 3 MSTB'!S57</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V44" s="1">
         <f>'RND 3 MSTB'!T57</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W44" s="89">
         <f>'RND 3 MSTB'!U57</f>
-        <v>29</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
@@ -52163,7 +52155,7 @@
       <c r="D45" s="83"/>
       <c r="E45" s="1">
         <f>'RND 3 MSTB'!C58</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F45" s="1">
         <f>'RND 3 MSTB'!D58</f>
@@ -52175,35 +52167,35 @@
       </c>
       <c r="H45" s="1">
         <f>'RND 3 MSTB'!F58</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
         <f>'RND 3 MSTB'!G58</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J45" s="1">
         <f>'RND 3 MSTB'!H58</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K45" s="1">
         <f>'RND 3 MSTB'!I58</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L45" s="1">
         <f>'RND 3 MSTB'!J58</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M45" s="1">
         <f>'RND 3 MSTB'!K58</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N45" s="1">
         <f>'RND 3 MSTB'!L58</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O45" s="1">
         <f>'RND 3 MSTB'!M58</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P45" s="1">
         <f>'RND 3 MSTB'!N58</f>
@@ -52211,11 +52203,11 @@
       </c>
       <c r="Q45" s="1">
         <f>'RND 3 MSTB'!O58</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R45" s="1">
         <f>'RND 3 MSTB'!P58</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S45" s="1">
         <f>'RND 3 MSTB'!Q58</f>
@@ -52223,19 +52215,19 @@
       </c>
       <c r="T45" s="1">
         <f>'RND 3 MSTB'!R58</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U45" s="1">
         <f>'RND 3 MSTB'!S58</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V45" s="1">
         <f>'RND 3 MSTB'!T58</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W45" s="89">
         <f>'RND 3 MSTB'!U58</f>
-        <v>31</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
@@ -52250,7 +52242,7 @@
       <c r="D46" s="83"/>
       <c r="E46" s="1">
         <f>'RND 3 MSTB'!C59</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F46" s="1">
         <f>'RND 3 MSTB'!D59</f>
@@ -52262,35 +52254,35 @@
       </c>
       <c r="H46" s="1">
         <f>'RND 3 MSTB'!F59</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
         <f>'RND 3 MSTB'!G59</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
         <f>'RND 3 MSTB'!H59</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K46" s="1">
         <f>'RND 3 MSTB'!I59</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L46" s="1">
         <f>'RND 3 MSTB'!J59</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M46" s="1">
         <f>'RND 3 MSTB'!K59</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N46" s="1">
         <f>'RND 3 MSTB'!L59</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O46" s="1">
         <f>'RND 3 MSTB'!M59</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P46" s="1">
         <f>'RND 3 MSTB'!N59</f>
@@ -52298,11 +52290,11 @@
       </c>
       <c r="Q46" s="1">
         <f>'RND 3 MSTB'!O59</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R46" s="1">
         <f>'RND 3 MSTB'!P59</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S46" s="1">
         <f>'RND 3 MSTB'!Q59</f>
@@ -52310,19 +52302,19 @@
       </c>
       <c r="T46" s="1">
         <f>'RND 3 MSTB'!R59</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U46" s="1">
         <f>'RND 3 MSTB'!S59</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V46" s="1">
         <f>'RND 3 MSTB'!T59</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W46" s="89">
         <f>'RND 3 MSTB'!U59</f>
-        <v>34</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -52337,7 +52329,7 @@
       <c r="D47" s="83"/>
       <c r="E47" s="1">
         <f>'RND 3 MSTB'!C60</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F47" s="1">
         <f>'RND 3 MSTB'!D60</f>
@@ -52349,35 +52341,35 @@
       </c>
       <c r="H47" s="1">
         <f>'RND 3 MSTB'!F60</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1">
         <f>'RND 3 MSTB'!G60</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J47" s="1">
         <f>'RND 3 MSTB'!H60</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K47" s="1">
         <f>'RND 3 MSTB'!I60</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L47" s="1">
         <f>'RND 3 MSTB'!J60</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M47" s="1">
         <f>'RND 3 MSTB'!K60</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N47" s="1">
         <f>'RND 3 MSTB'!L60</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O47" s="1">
         <f>'RND 3 MSTB'!M60</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P47" s="1">
         <f>'RND 3 MSTB'!N60</f>
@@ -52385,11 +52377,11 @@
       </c>
       <c r="Q47" s="1">
         <f>'RND 3 MSTB'!O60</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R47" s="1">
         <f>'RND 3 MSTB'!P60</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S47" s="1">
         <f>'RND 3 MSTB'!Q60</f>
@@ -52397,19 +52389,19 @@
       </c>
       <c r="T47" s="1">
         <f>'RND 3 MSTB'!R60</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U47" s="1">
         <f>'RND 3 MSTB'!S60</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V47" s="1">
         <f>'RND 3 MSTB'!T60</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W47" s="89">
         <f>'RND 3 MSTB'!U60</f>
-        <v>35</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.2">
@@ -52424,7 +52416,7 @@
       <c r="D48" s="83"/>
       <c r="E48" s="1">
         <f>'RND 3 MSTB'!C61</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F48" s="1">
         <f>'RND 3 MSTB'!D61</f>
@@ -52436,35 +52428,35 @@
       </c>
       <c r="H48" s="1">
         <f>'RND 3 MSTB'!F61</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
         <f>'RND 3 MSTB'!G61</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1">
         <f>'RND 3 MSTB'!H61</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K48" s="1">
         <f>'RND 3 MSTB'!I61</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L48" s="1">
         <f>'RND 3 MSTB'!J61</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M48" s="1">
         <f>'RND 3 MSTB'!K61</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N48" s="1">
         <f>'RND 3 MSTB'!L61</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O48" s="1">
         <f>'RND 3 MSTB'!M61</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P48" s="1">
         <f>'RND 3 MSTB'!N61</f>
@@ -52472,11 +52464,11 @@
       </c>
       <c r="Q48" s="1">
         <f>'RND 3 MSTB'!O61</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R48" s="1">
         <f>'RND 3 MSTB'!P61</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S48" s="1">
         <f>'RND 3 MSTB'!Q61</f>
@@ -52484,19 +52476,19 @@
       </c>
       <c r="T48" s="1">
         <f>'RND 3 MSTB'!R61</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U48" s="1">
         <f>'RND 3 MSTB'!S61</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V48" s="1">
         <f>'RND 3 MSTB'!T61</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W48" s="89">
         <f>'RND 3 MSTB'!U61</f>
-        <v>38</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -52511,7 +52503,7 @@
       <c r="D49" s="85"/>
       <c r="E49" s="90">
         <f>'RND 3 MSTB'!C62</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F49" s="90">
         <f>'RND 3 MSTB'!D62</f>
@@ -52523,35 +52515,35 @@
       </c>
       <c r="H49" s="90">
         <f>'RND 3 MSTB'!F62</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="90">
         <f>'RND 3 MSTB'!G62</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J49" s="90">
         <f>'RND 3 MSTB'!H62</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K49" s="90">
         <f>'RND 3 MSTB'!I62</f>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="L49" s="90">
         <f>'RND 3 MSTB'!J62</f>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="M49" s="90">
         <f>'RND 3 MSTB'!K62</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N49" s="90">
         <f>'RND 3 MSTB'!L62</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O49" s="90">
         <f>'RND 3 MSTB'!M62</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P49" s="90">
         <f>'RND 3 MSTB'!N62</f>
@@ -52559,11 +52551,11 @@
       </c>
       <c r="Q49" s="90">
         <f>'RND 3 MSTB'!O62</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R49" s="90">
         <f>'RND 3 MSTB'!P62</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S49" s="90">
         <f>'RND 3 MSTB'!Q62</f>
@@ -52571,19 +52563,19 @@
       </c>
       <c r="T49" s="90">
         <f>'RND 3 MSTB'!R62</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U49" s="90">
         <f>'RND 3 MSTB'!S62</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="V49" s="90">
         <f>'RND 3 MSTB'!T62</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W49" s="91">
         <f>'RND 3 MSTB'!U62</f>
-        <v>40</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -52857,8 +52849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E288B878-8A4E-9745-8363-EBFFEB11D2E5}">
   <dimension ref="A1:AS62"/>
   <sheetViews>
-    <sheetView zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:T6"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -53003,7 +52995,7 @@
       </c>
       <c r="Z4" s="131">
         <f>U55</f>
-        <v>25</v>
+        <v>-17</v>
       </c>
       <c r="AA4" s="131">
         <f>RANK(Z4,$Z$4:$Z$11,0)</f>
@@ -53092,7 +53084,7 @@
       </c>
       <c r="Z5" s="134">
         <f t="shared" ref="Z5:Z11" si="4">U56</f>
-        <v>27</v>
+        <v>-16</v>
       </c>
       <c r="AA5" s="134">
         <f t="shared" ref="AA5:AA11" si="5">RANK(Z5,$Z$4:$Z$11,0)</f>
@@ -53181,7 +53173,7 @@
       </c>
       <c r="Z6" s="134">
         <f t="shared" si="4"/>
-        <v>29</v>
+        <v>-15</v>
       </c>
       <c r="AA6" s="134">
         <f t="shared" si="5"/>
@@ -53214,62 +53206,62 @@
         <v>1</v>
       </c>
       <c r="C7" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" s="112">
         <v>5</v>
       </c>
       <c r="E7" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I7" s="112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J7" s="112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L7" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M7" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" s="112">
         <v>5</v>
       </c>
       <c r="O7" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P7" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="112">
         <v>5</v>
       </c>
       <c r="R7" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S7" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T7" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U7" s="8">
         <f>SUM(C7:T7)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y7" s="133" t="str">
         <f t="shared" si="0"/>
@@ -53277,7 +53269,7 @@
       </c>
       <c r="Z7" s="134">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="AA7" s="134">
         <f t="shared" si="5"/>
@@ -53310,62 +53302,62 @@
         <v>2</v>
       </c>
       <c r="C8" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" s="112">
         <v>5</v>
       </c>
       <c r="E8" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" s="112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J8" s="112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K8" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L8" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M8" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" s="112">
         <v>5</v>
       </c>
       <c r="O8" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q8" s="112">
         <v>5</v>
       </c>
       <c r="R8" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S8" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" ref="U8:U14" si="7">SUM(C8:T8)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y8" s="133" t="str">
         <f t="shared" si="0"/>
@@ -53373,7 +53365,7 @@
       </c>
       <c r="Z8" s="134">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>-9</v>
       </c>
       <c r="AA8" s="134">
         <f t="shared" si="5"/>
@@ -53406,62 +53398,62 @@
         <v>3</v>
       </c>
       <c r="C9" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" s="112">
         <v>5</v>
       </c>
       <c r="E9" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H9" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I9" s="112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K9" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" s="112">
         <v>5</v>
       </c>
       <c r="O9" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P9" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="112">
         <v>5</v>
       </c>
       <c r="R9" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y9" s="133" t="str">
         <f t="shared" si="0"/>
@@ -53469,7 +53461,7 @@
       </c>
       <c r="Z9" s="134">
         <f t="shared" si="4"/>
-        <v>35</v>
+        <v>-8</v>
       </c>
       <c r="AA9" s="134">
         <f t="shared" si="5"/>
@@ -53502,62 +53494,62 @@
         <v>4</v>
       </c>
       <c r="C10" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" s="112">
         <v>5</v>
       </c>
       <c r="E10" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" s="112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K10" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L10" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M10" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N10" s="112">
         <v>5</v>
       </c>
       <c r="O10" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P10" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="112">
         <v>5</v>
       </c>
       <c r="R10" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S10" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T10" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y10" s="133" t="str">
         <f t="shared" si="0"/>
@@ -53565,7 +53557,7 @@
       </c>
       <c r="Z10" s="134">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>-7</v>
       </c>
       <c r="AA10" s="134">
         <f t="shared" si="5"/>
@@ -53598,62 +53590,62 @@
         <v>5</v>
       </c>
       <c r="C11" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="112">
         <v>5</v>
       </c>
       <c r="E11" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H11" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11" s="112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" s="112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K11" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M11" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" s="112">
         <v>5</v>
       </c>
       <c r="O11" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P11" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q11" s="112">
         <v>5</v>
       </c>
       <c r="R11" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T11" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="136" t="str">
         <f t="shared" si="0"/>
@@ -53661,7 +53653,7 @@
       </c>
       <c r="Z11" s="137">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="AA11" s="137">
         <f t="shared" si="5"/>
@@ -53694,62 +53686,62 @@
         <v>6</v>
       </c>
       <c r="C12" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="112">
         <v>5</v>
       </c>
       <c r="E12" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12" s="112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M12" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" s="112">
         <v>5</v>
       </c>
       <c r="O12" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P12" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="112">
         <v>5</v>
       </c>
       <c r="R12" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y12" s="83"/>
       <c r="AG12" s="84"/>
@@ -53762,62 +53754,62 @@
         <v>7</v>
       </c>
       <c r="C13" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="112">
         <v>5</v>
       </c>
       <c r="E13" s="112">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13" s="112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I13" s="112">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="112">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K13" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L13" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M13" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" s="112">
         <v>5</v>
       </c>
       <c r="O13" s="112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P13" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13" s="112">
         <v>5</v>
       </c>
       <c r="R13" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S13" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13" s="112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y13" s="83"/>
       <c r="AG13" s="84"/>
@@ -53830,62 +53822,62 @@
         <v>8</v>
       </c>
       <c r="C14" s="113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="113">
         <v>5</v>
       </c>
       <c r="E14" s="113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F14" s="113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14" s="113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H14" s="113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I14" s="113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" s="113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K14" s="113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" s="113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" s="113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" s="113">
         <v>5</v>
       </c>
       <c r="O14" s="113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P14" s="113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="113">
         <v>5</v>
       </c>
       <c r="R14" s="113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" s="113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" s="113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U14" s="7">
         <f t="shared" si="7"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y14" s="130" t="str">
         <f t="shared" ref="Y14:Z21" si="8">Y4</f>
@@ -53893,7 +53885,7 @@
       </c>
       <c r="Z14" s="131">
         <f t="shared" si="8"/>
-        <v>25</v>
+        <v>-17</v>
       </c>
       <c r="AA14" s="131">
         <f t="shared" ref="AA14:AA21" si="9">AG4</f>
@@ -53913,7 +53905,7 @@
       </c>
       <c r="AF14" s="104">
         <f t="shared" ref="AF14:AF21" si="11">INDEX($Y$14:$AB$21,MATCH(AD14,$AB$14:$AB$21,0),2)</f>
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="AG14" s="105">
         <f>INDEX($Y$14:$AB$21,MATCH(AD14,$AB$14:$AB$21,0),3)</f>
@@ -53946,7 +53938,7 @@
       </c>
       <c r="Z15" s="134">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>-16</v>
       </c>
       <c r="AA15" s="134">
         <f t="shared" si="9"/>
@@ -53966,7 +53958,7 @@
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="11"/>
-        <v>38</v>
+        <v>-7</v>
       </c>
       <c r="AG15" s="107">
         <f t="shared" ref="AG15:AG21" si="12">INDEX($Y$14:$AB$21,MATCH(AD15,$AB$14:$AB$21,0),3)</f>
@@ -54042,7 +54034,7 @@
       </c>
       <c r="Z16" s="134">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>-15</v>
       </c>
       <c r="AA16" s="134">
         <f t="shared" si="9"/>
@@ -54062,7 +54054,7 @@
       </c>
       <c r="AF16" s="12">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>-8</v>
       </c>
       <c r="AG16" s="107">
         <f t="shared" si="12"/>
@@ -54151,7 +54143,7 @@
       </c>
       <c r="Z17" s="134">
         <f t="shared" si="8"/>
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="AA17" s="134">
         <f t="shared" si="9"/>
@@ -54171,7 +54163,7 @@
       </c>
       <c r="AF17" s="12">
         <f t="shared" si="11"/>
-        <v>34</v>
+        <v>-9</v>
       </c>
       <c r="AG17" s="107">
         <f t="shared" si="12"/>
@@ -54260,7 +54252,7 @@
       </c>
       <c r="Z18" s="134">
         <f t="shared" si="8"/>
-        <v>34</v>
+        <v>-9</v>
       </c>
       <c r="AA18" s="134">
         <f t="shared" si="9"/>
@@ -54280,7 +54272,7 @@
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="11"/>
-        <v>31</v>
+        <v>-12</v>
       </c>
       <c r="AG18" s="107">
         <f t="shared" si="12"/>
@@ -54374,7 +54366,7 @@
       </c>
       <c r="Z19" s="134">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>-8</v>
       </c>
       <c r="AA19" s="134">
         <f t="shared" si="9"/>
@@ -54394,7 +54386,7 @@
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="11"/>
-        <v>29</v>
+        <v>-15</v>
       </c>
       <c r="AG19" s="107">
         <f t="shared" si="12"/>
@@ -54488,7 +54480,7 @@
       </c>
       <c r="Z20" s="134">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>-7</v>
       </c>
       <c r="AA20" s="134">
         <f t="shared" si="9"/>
@@ -54508,7 +54500,7 @@
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="11"/>
-        <v>27</v>
+        <v>-16</v>
       </c>
       <c r="AG20" s="107">
         <f t="shared" si="12"/>
@@ -54602,7 +54594,7 @@
       </c>
       <c r="Z21" s="137">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="AA21" s="137">
         <f t="shared" si="9"/>
@@ -54622,7 +54614,7 @@
       </c>
       <c r="AF21" s="109">
         <f t="shared" si="11"/>
-        <v>25</v>
+        <v>-17</v>
       </c>
       <c r="AG21" s="110">
         <f t="shared" si="12"/>
@@ -55294,7 +55286,7 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" ref="C31:T31" si="28">C7+IF(C19="●",-1)+IF(C19="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="28"/>
@@ -55302,39 +55294,39 @@
       </c>
       <c r="E31" s="1">
         <f t="shared" si="28"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="28"/>
@@ -55342,11 +55334,11 @@
       </c>
       <c r="O31" s="1">
         <f t="shared" si="28"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P31" s="1">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="28"/>
@@ -55354,15 +55346,15 @@
       </c>
       <c r="R31" s="1">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31" s="1">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" s="1">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U31" s="9"/>
     </row>
@@ -55376,7 +55368,7 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" ref="C32:T32" si="30">C8+IF(C20="●",-1)+IF(C20="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="30"/>
@@ -55384,39 +55376,39 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="30"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="30"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="30"/>
@@ -55424,11 +55416,11 @@
       </c>
       <c r="O32" s="1">
         <f t="shared" si="30"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P32" s="1">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="30"/>
@@ -55436,15 +55428,15 @@
       </c>
       <c r="R32" s="1">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" s="1">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U32" s="9"/>
     </row>
@@ -55458,7 +55450,7 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" ref="C33:T33" si="31">C9+IF(C21="●",-1)+IF(C21="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="31"/>
@@ -55466,39 +55458,39 @@
       </c>
       <c r="E33" s="1">
         <f t="shared" si="31"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" si="31"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J33" s="1">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="31"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="31"/>
@@ -55506,11 +55498,11 @@
       </c>
       <c r="O33" s="1">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="31"/>
@@ -55518,15 +55510,15 @@
       </c>
       <c r="R33" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="31"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U33" s="9"/>
     </row>
@@ -55540,7 +55532,7 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" ref="C34:T34" si="32">C10+IF(C22="●",-1)+IF(C22="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="32"/>
@@ -55548,39 +55540,39 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="32"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="32"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="32"/>
@@ -55588,11 +55580,11 @@
       </c>
       <c r="O34" s="1">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="32"/>
@@ -55600,15 +55592,15 @@
       </c>
       <c r="R34" s="1">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" si="32"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="32"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U34" s="9"/>
       <c r="AB34" s="284">
@@ -55642,7 +55634,7 @@
       </c>
       <c r="C35" s="1">
         <f t="shared" ref="C35:T35" si="33">C11+IF(C23="●",-1)+IF(C23="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="33"/>
@@ -55650,39 +55642,39 @@
       </c>
       <c r="E35" s="1">
         <f t="shared" si="33"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="33"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35" s="1">
         <f t="shared" si="33"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="33"/>
@@ -55690,11 +55682,11 @@
       </c>
       <c r="O35" s="1">
         <f t="shared" si="33"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="33"/>
@@ -55702,15 +55694,15 @@
       </c>
       <c r="R35" s="1">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" si="33"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U35" s="9"/>
     </row>
@@ -55724,7 +55716,7 @@
       </c>
       <c r="C36" s="1">
         <f t="shared" ref="C36:T36" si="34">C12+IF(C24="●",-1)+IF(C24="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="34"/>
@@ -55732,39 +55724,39 @@
       </c>
       <c r="E36" s="1">
         <f t="shared" si="34"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="34"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J36" s="1">
         <f t="shared" si="34"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="34"/>
@@ -55772,11 +55764,11 @@
       </c>
       <c r="O36" s="1">
         <f t="shared" si="34"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="34"/>
@@ -55784,15 +55776,15 @@
       </c>
       <c r="R36" s="1">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36" s="1">
         <f t="shared" si="34"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T36" s="1">
         <f t="shared" si="34"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U36" s="9"/>
     </row>
@@ -55806,7 +55798,7 @@
       </c>
       <c r="C37" s="1">
         <f t="shared" ref="C37:T37" si="35">C13+IF(C25="●",-1)+IF(C25="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="35"/>
@@ -55814,39 +55806,39 @@
       </c>
       <c r="E37" s="1">
         <f t="shared" si="35"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" si="35"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G37" s="1">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J37" s="1">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="35"/>
@@ -55854,11 +55846,11 @@
       </c>
       <c r="O37" s="1">
         <f t="shared" si="35"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="35"/>
@@ -55866,15 +55858,15 @@
       </c>
       <c r="R37" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" s="1">
         <f t="shared" si="35"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" s="1">
         <f t="shared" si="35"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U37" s="9"/>
     </row>
@@ -55888,7 +55880,7 @@
       </c>
       <c r="C38" s="6">
         <f t="shared" ref="C38:T38" si="36">C14+IF(C26="●",-1)+IF(C26="●●",-2)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" s="6">
         <f t="shared" si="36"/>
@@ -55896,39 +55888,39 @@
       </c>
       <c r="E38" s="6">
         <f t="shared" si="36"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38" s="6">
         <f t="shared" si="36"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38" s="6">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I38" s="6">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J38" s="6">
         <f t="shared" si="36"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L38" s="6">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M38" s="6">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" s="6">
         <f t="shared" si="36"/>
@@ -55936,11 +55928,11 @@
       </c>
       <c r="O38" s="6">
         <f t="shared" si="36"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P38" s="6">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q38" s="6">
         <f t="shared" si="36"/>
@@ -55948,15 +55940,15 @@
       </c>
       <c r="R38" s="6">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S38" s="6">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38" s="6">
         <f t="shared" si="36"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U38" s="10"/>
     </row>
@@ -56206,7 +56198,7 @@
       </c>
       <c r="C43" s="2">
         <f>C31-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" ref="D43:T43" si="41">D31-D29</f>
@@ -56214,39 +56206,39 @@
       </c>
       <c r="E43" s="3">
         <f t="shared" si="41"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="41"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="41"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="41"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="41"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="41"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="41"/>
@@ -56254,11 +56246,11 @@
       </c>
       <c r="O43" s="3">
         <f t="shared" si="41"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P43" s="3">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q43" s="3">
         <f t="shared" si="41"/>
@@ -56266,15 +56258,15 @@
       </c>
       <c r="R43" s="3">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43" s="3">
         <f t="shared" si="41"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T43" s="3">
         <f t="shared" si="41"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="4"/>
     </row>
@@ -56288,7 +56280,7 @@
       </c>
       <c r="C44" s="11">
         <f>C32-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" ref="D44:T44" si="43">D32-D29</f>
@@ -56296,39 +56288,39 @@
       </c>
       <c r="E44" s="1">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
         <f t="shared" si="43"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="43"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="43"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="1">
         <f t="shared" si="43"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="43"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="43"/>
@@ -56336,11 +56328,11 @@
       </c>
       <c r="O44" s="1">
         <f t="shared" si="43"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="43"/>
@@ -56348,15 +56340,15 @@
       </c>
       <c r="R44" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" s="1">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" s="1">
         <f t="shared" si="43"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="9"/>
     </row>
@@ -56370,7 +56362,7 @@
       </c>
       <c r="C45" s="11">
         <f>C33-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" ref="D45:T45" si="44">D33-D29</f>
@@ -56378,39 +56370,39 @@
       </c>
       <c r="E45" s="1">
         <f t="shared" si="44"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
         <f t="shared" si="44"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="44"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J45" s="1">
         <f t="shared" si="44"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K45" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="44"/>
@@ -56418,11 +56410,11 @@
       </c>
       <c r="O45" s="1">
         <f t="shared" si="44"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="44"/>
@@ -56430,15 +56422,15 @@
       </c>
       <c r="R45" s="1">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="1">
         <f t="shared" si="44"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" s="1">
         <f t="shared" si="44"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="9"/>
     </row>
@@ -56452,7 +56444,7 @@
       </c>
       <c r="C46" s="11">
         <f>C34-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" ref="D46:T46" si="45">D34-D29</f>
@@ -56460,39 +56452,39 @@
       </c>
       <c r="E46" s="1">
         <f t="shared" si="45"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F46" s="1">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="1">
         <f t="shared" si="45"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="45"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J46" s="1">
         <f t="shared" si="45"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="45"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="45"/>
@@ -56500,11 +56492,11 @@
       </c>
       <c r="O46" s="1">
         <f t="shared" si="45"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="45"/>
@@ -56512,15 +56504,15 @@
       </c>
       <c r="R46" s="1">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="1">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T46" s="1">
         <f t="shared" si="45"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U46" s="9"/>
     </row>
@@ -56534,7 +56526,7 @@
       </c>
       <c r="C47" s="11">
         <f>C35-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" ref="D47:T47" si="46">D35-D29</f>
@@ -56542,39 +56534,39 @@
       </c>
       <c r="E47" s="1">
         <f t="shared" si="46"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F47" s="1">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="46"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="46"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="46"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="46"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="46"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="46"/>
@@ -56582,11 +56574,11 @@
       </c>
       <c r="O47" s="1">
         <f t="shared" si="46"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="46"/>
@@ -56594,15 +56586,15 @@
       </c>
       <c r="R47" s="1">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="1">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" si="46"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U47" s="9"/>
     </row>
@@ -56616,7 +56608,7 @@
       </c>
       <c r="C48" s="11">
         <f>C36-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" ref="D48:T48" si="47">D36-D29</f>
@@ -56624,39 +56616,39 @@
       </c>
       <c r="E48" s="1">
         <f t="shared" si="47"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F48" s="1">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" s="1">
         <f t="shared" si="47"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="47"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="47"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J48" s="1">
         <f t="shared" si="47"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="1">
         <f t="shared" si="47"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="1">
         <f t="shared" si="47"/>
@@ -56664,11 +56656,11 @@
       </c>
       <c r="O48" s="1">
         <f t="shared" si="47"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="47"/>
@@ -56676,15 +56668,15 @@
       </c>
       <c r="R48" s="1">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" s="1">
         <f t="shared" si="47"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" s="1">
         <f t="shared" si="47"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U48" s="9"/>
     </row>
@@ -56698,7 +56690,7 @@
       </c>
       <c r="C49" s="11">
         <f>C37-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" ref="D49:T49" si="48">D37-D29</f>
@@ -56706,39 +56698,39 @@
       </c>
       <c r="E49" s="1">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="1">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="1">
         <f t="shared" si="48"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="48"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="48"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J49" s="1">
         <f t="shared" si="48"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="48"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L49" s="1">
         <f t="shared" si="48"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="1">
         <f t="shared" si="48"/>
@@ -56746,11 +56738,11 @@
       </c>
       <c r="O49" s="1">
         <f t="shared" si="48"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="48"/>
@@ -56758,15 +56750,15 @@
       </c>
       <c r="R49" s="1">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49" s="1">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T49" s="1">
         <f t="shared" si="48"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U49" s="9"/>
     </row>
@@ -56780,7 +56772,7 @@
       </c>
       <c r="C50" s="5">
         <f>C38-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D50" s="6">
         <f t="shared" ref="D50:T50" si="49">D38-D29</f>
@@ -56788,39 +56780,39 @@
       </c>
       <c r="E50" s="6">
         <f t="shared" si="49"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F50" s="6">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="49"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="49"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I50" s="6">
         <f t="shared" si="49"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="6">
         <f t="shared" si="49"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="49"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="6">
         <f t="shared" si="49"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M50" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="6">
         <f t="shared" si="49"/>
@@ -56828,11 +56820,11 @@
       </c>
       <c r="O50" s="6">
         <f t="shared" si="49"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P50" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="6">
         <f t="shared" si="49"/>
@@ -56840,15 +56832,15 @@
       </c>
       <c r="R50" s="6">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S50" s="6">
         <f t="shared" si="49"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" s="6">
         <f t="shared" si="49"/>
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U50" s="10"/>
     </row>
@@ -57098,7 +57090,7 @@
       </c>
       <c r="C55" s="2">
         <f>IF(C43=-4,12)+(IF(C43=-3,8))+(IF(C43=-2,5))+(IF(C43=-1,3))+(IF(C43=0,0))+(IF(C43=1,-1))+(IF(C43&gt;=2,-2))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" ref="D55:T55" si="54">IF(D43=-4,12)+(IF(D43=-3,8))+(IF(D43=-2,5))+(IF(D43=-1,3))+(IF(D43=0,0))+(IF(D43=1,-1))+(IF(D43&gt;=2,-2))</f>
@@ -57110,35 +57102,35 @@
       </c>
       <c r="F55" s="3">
         <f t="shared" si="54"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="54"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="54"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K55" s="3">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L55" s="3">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M55" s="3">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" si="54"/>
@@ -57146,11 +57138,11 @@
       </c>
       <c r="O55" s="3">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P55" s="3">
         <f t="shared" si="54"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" si="54"/>
@@ -57158,19 +57150,19 @@
       </c>
       <c r="R55" s="3">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S55" s="3">
         <f t="shared" si="54"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T55" s="3">
         <f t="shared" si="54"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U55" s="16">
         <f>SUM(C55:T55)</f>
-        <v>25</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
@@ -57183,7 +57175,7 @@
       </c>
       <c r="C56" s="11">
         <f t="shared" ref="C56:C62" si="56">IF(C44=-4,12)+(IF(C44=-3,8))+(IF(C44=-2,5))+(IF(C44=-1,3))+(IF(C44=0,0))+(IF(C44=1,-1))+(IF(C44&gt;=2,-2))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D56" s="1">
         <f t="shared" ref="D56:T56" si="57">IF(D44=-4,12)+(IF(D44=-3,8))+(IF(D44=-2,5))+(IF(D44=-1,3))+(IF(D44=0,0))+(IF(D44=1,-1))+(IF(D44&gt;=2,-2))</f>
@@ -57195,35 +57187,35 @@
       </c>
       <c r="F56" s="1">
         <f t="shared" si="57"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G56" s="1">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="57"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="57"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L56" s="1">
         <f>IF(L44=-4,12)+(IF(L44=-3,8))+(IF(L44=-2,5))+(IF(L44=-1,3))+(IF(L44=0,0))+(IF(L44=1,-1))+(IF(L44&gt;=2,-2))</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M56" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N56" s="1">
         <f t="shared" si="57"/>
@@ -57231,11 +57223,11 @@
       </c>
       <c r="O56" s="1">
         <f t="shared" si="57"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P56" s="1">
         <f t="shared" si="57"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q56" s="1">
         <f t="shared" si="57"/>
@@ -57243,19 +57235,19 @@
       </c>
       <c r="R56" s="1">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S56" s="1">
         <f t="shared" si="57"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T56" s="1">
         <f t="shared" si="57"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U56" s="8">
         <f t="shared" ref="U56:U62" si="58">SUM(C56:T56)</f>
-        <v>27</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
@@ -57268,7 +57260,7 @@
       </c>
       <c r="C57" s="11">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D57" s="1">
         <f t="shared" ref="D57:T57" si="59">IF(D45=-4,12)+(IF(D45=-3,8))+(IF(D45=-2,5))+(IF(D45=-1,3))+(IF(D45=0,0))+(IF(D45=1,-1))+(IF(D45&gt;=2,-2))</f>
@@ -57280,35 +57272,35 @@
       </c>
       <c r="F57" s="1">
         <f t="shared" si="59"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G57" s="1">
         <f t="shared" si="59"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="59"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="59"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L57" s="1">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M57" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N57" s="1">
         <f t="shared" si="59"/>
@@ -57316,11 +57308,11 @@
       </c>
       <c r="O57" s="1">
         <f t="shared" si="59"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="59"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q57" s="1">
         <f t="shared" si="59"/>
@@ -57328,19 +57320,19 @@
       </c>
       <c r="R57" s="1">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S57" s="1">
         <f t="shared" si="59"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T57" s="1">
         <f t="shared" si="59"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U57" s="8">
         <f t="shared" si="58"/>
-        <v>29</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
@@ -57353,7 +57345,7 @@
       </c>
       <c r="C58" s="11">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D58" s="1">
         <f t="shared" ref="D58:T58" si="60">IF(D46=-4,12)+(IF(D46=-3,8))+(IF(D46=-2,5))+(IF(D46=-1,3))+(IF(D46=0,0))+(IF(D46=1,-1))+(IF(D46&gt;=2,-2))</f>
@@ -57365,35 +57357,35 @@
       </c>
       <c r="F58" s="1">
         <f t="shared" si="60"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
         <f t="shared" si="60"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H58" s="1">
         <f t="shared" si="60"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="60"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L58" s="1">
         <f t="shared" si="60"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M58" s="1">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N58" s="1">
         <f t="shared" si="60"/>
@@ -57401,11 +57393,11 @@
       </c>
       <c r="O58" s="1">
         <f t="shared" si="60"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P58" s="1">
         <f t="shared" si="60"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q58" s="1">
         <f t="shared" si="60"/>
@@ -57413,19 +57405,19 @@
       </c>
       <c r="R58" s="1">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S58" s="1">
         <f t="shared" si="60"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T58" s="1">
         <f t="shared" si="60"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U58" s="8">
         <f t="shared" si="58"/>
-        <v>31</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
@@ -57438,7 +57430,7 @@
       </c>
       <c r="C59" s="11">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D59" s="1">
         <f t="shared" ref="D59:T59" si="61">IF(D47=-4,12)+(IF(D47=-3,8))+(IF(D47=-2,5))+(IF(D47=-1,3))+(IF(D47=0,0))+(IF(D47=1,-1))+(IF(D47&gt;=2,-2))</f>
@@ -57450,35 +57442,35 @@
       </c>
       <c r="F59" s="1">
         <f t="shared" si="61"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
         <f t="shared" si="61"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H59" s="1">
         <f t="shared" si="61"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J59" s="15">
         <f t="shared" si="61"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K59" s="13">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L59" s="1">
         <f t="shared" si="61"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M59" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N59" s="1">
         <f t="shared" si="61"/>
@@ -57486,11 +57478,11 @@
       </c>
       <c r="O59" s="1">
         <f t="shared" si="61"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P59" s="1">
         <f t="shared" si="61"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q59" s="1">
         <f t="shared" si="61"/>
@@ -57498,19 +57490,19 @@
       </c>
       <c r="R59" s="1">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S59" s="1">
         <f t="shared" si="61"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T59" s="1">
         <f t="shared" si="61"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U59" s="8">
         <f t="shared" si="58"/>
-        <v>34</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
@@ -57523,7 +57515,7 @@
       </c>
       <c r="C60" s="11">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D60" s="1">
         <f t="shared" ref="D60:T60" si="62">IF(D48=-4,12)+(IF(D48=-3,8))+(IF(D48=-2,5))+(IF(D48=-1,3))+(IF(D48=0,0))+(IF(D48=1,-1))+(IF(D48&gt;=2,-2))</f>
@@ -57535,35 +57527,35 @@
       </c>
       <c r="F60" s="1">
         <f t="shared" si="62"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H60" s="1">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="62"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K60" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L60" s="1">
         <f t="shared" si="62"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M60" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N60" s="1">
         <f t="shared" si="62"/>
@@ -57571,11 +57563,11 @@
       </c>
       <c r="O60" s="1">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P60" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q60" s="1">
         <f t="shared" si="62"/>
@@ -57583,19 +57575,19 @@
       </c>
       <c r="R60" s="1">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S60" s="1">
         <f t="shared" si="62"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T60" s="1">
         <f t="shared" si="62"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U60" s="8">
         <f t="shared" si="58"/>
-        <v>35</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
@@ -57608,7 +57600,7 @@
       </c>
       <c r="C61" s="11">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D61" s="1">
         <f t="shared" ref="D61:T61" si="63">IF(D49=-4,12)+(IF(D49=-3,8))+(IF(D49=-2,5))+(IF(D49=-1,3))+(IF(D49=0,0))+(IF(D49=1,-1))+(IF(D49&gt;=2,-2))</f>
@@ -57620,35 +57612,35 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="63"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
         <f t="shared" si="63"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H61" s="1">
         <f t="shared" si="63"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
         <f t="shared" si="63"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="63"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K61" s="1">
         <f t="shared" si="63"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L61" s="1">
         <f t="shared" si="63"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M61" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N61" s="1">
         <f t="shared" si="63"/>
@@ -57656,11 +57648,11 @@
       </c>
       <c r="O61" s="1">
         <f t="shared" si="63"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P61" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q61" s="1">
         <f t="shared" si="63"/>
@@ -57668,19 +57660,19 @@
       </c>
       <c r="R61" s="1">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S61" s="1">
         <f t="shared" si="63"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T61" s="1">
         <f t="shared" si="63"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U61" s="8">
         <f t="shared" si="58"/>
-        <v>38</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
@@ -57693,7 +57685,7 @@
       </c>
       <c r="C62" s="5">
         <f t="shared" si="56"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D62" s="6">
         <f t="shared" ref="D62:T62" si="64">IF(D50=-4,12)+(IF(D50=-3,8))+(IF(D50=-2,5))+(IF(D50=-1,3))+(IF(D50=0,0))+(IF(D50=1,-1))+(IF(D50&gt;=2,-2))</f>
@@ -57705,35 +57697,35 @@
       </c>
       <c r="F62" s="6">
         <f t="shared" si="64"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="64"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H62" s="6">
         <f t="shared" si="64"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I62" s="6">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="J62" s="6">
         <f t="shared" si="64"/>
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="64"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L62" s="6">
         <f t="shared" si="64"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M62" s="6">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N62" s="6">
         <f t="shared" si="64"/>
@@ -57741,11 +57733,11 @@
       </c>
       <c r="O62" s="6">
         <f t="shared" si="64"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P62" s="6">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q62" s="6">
         <f t="shared" si="64"/>
@@ -57753,19 +57745,19 @@
       </c>
       <c r="R62" s="6">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S62" s="6">
         <f t="shared" si="64"/>
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="T62" s="6">
         <f t="shared" si="64"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U62" s="7">
         <f t="shared" si="58"/>
-        <v>40</v>
+        <v>-6</v>
       </c>
     </row>
   </sheetData>
